--- a/biology/Botanique/Liste_des_jardins_d'inspiration_médiévale/Liste_des_jardins_d'inspiration_médiévale.xlsx
+++ b/biology/Botanique/Liste_des_jardins_d'inspiration_médiévale/Liste_des_jardins_d'inspiration_médiévale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_jardins_d%27inspiration_m%C3%A9di%C3%A9vale</t>
+          <t>Liste_des_jardins_d'inspiration_médiévale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On entend par jardins d'inspiration médiévale, un jardin créé à l'époque contemporaine (XXe ou XXIe siècle), à partir de documents historiques sur les plantes et jardins du Moyen Âge européen, et présentant une collection de plantes connues en Europe avant le XVe siècle.
 Cette liste non exhaustive, présente les jardins d’inspiration médiévale, d'intérêt public, en Europe (classés par ordre alphabétique de pays, lieux, dates de création et noms des paysagistes).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_jardins_d%27inspiration_m%C3%A9di%C3%A9vale</t>
+          <t>Liste_des_jardins_d'inspiration_médiévale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_jardins_d%27inspiration_m%C3%A9di%C3%A9vale</t>
+          <t>Liste_des_jardins_d'inspiration_médiévale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,52 +549,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>En France</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auvergne-Rhône-Alpes
-Bourgogne-Franche-Comté
-Bretagne
-Centre-Val de Loire
-Corse
-Grand Est
-Hauts-de-France
-Île-de-France
-Normandie
-Nouvelle Aquitaine
-Occitanie
-Pays de la Loire
-Provence-Alpes-Côte d'Azur</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_jardins_d%27inspiration_m%C3%A9di%C3%A9vale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_jardins_d%27inspiration_m%C3%A9di%C3%A9vale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>En Suisse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
